--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893517.0995785379</v>
+        <v>857032.1433492535</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9541362.209841233</v>
+        <v>9541362.209841229</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>75.40914156896149</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>201.5703295459648</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>116.902239282742</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.79825004194893</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>34.44659877530525</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7394182836353</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
         <v>147.9721212459916</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>53.85702049871389</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>159.4196823148319</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>360.257753640338</v>
       </c>
       <c r="G8" t="n">
         <v>412.0074333304192</v>
       </c>
       <c r="H8" t="n">
-        <v>305.7267681340464</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.43367498914975</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9283254770339</v>
+        <v>133.9283254770338</v>
       </c>
       <c r="T8" t="n">
-        <v>91.69800884526056</v>
+        <v>208.6706554955379</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.580373985511</v>
       </c>
       <c r="H9" t="n">
-        <v>95.20719302029249</v>
+        <v>95.20719302029246</v>
       </c>
       <c r="I9" t="n">
-        <v>28.69192256658255</v>
+        <v>28.69192256658246</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>149.0849862156822</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>110.8299420939056</v>
       </c>
       <c r="S10" t="n">
-        <v>198.2563003669325</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.6298148299932</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2384024467255</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>150.6201748843377</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>59.9621122620172</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>299.2587842582826</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>135.5629652581866</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>188.2196394312116</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>92.4209234259892</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>105.0076120744428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>93.15507384882928</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>299.0510103814565</v>
       </c>
       <c r="F17" t="n">
-        <v>102.9230408272523</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.5660981224326</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>233.4396776561408</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2140,7 +2140,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>36.89863216765633</v>
+        <v>26.30878201733173</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>175.9864863791821</v>
       </c>
       <c r="V22" t="n">
-        <v>42.86209348694737</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>83.91763484385194</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>54.15195522813622</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>131.6653792309044</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>223.83515708523</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>131.9809553984397</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>186.2120483577851</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>210.1089145855752</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>16.32241046606758</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249709</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>132.5373350448693</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>180.1433765843359</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>133.3353942071037</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>132.679897740487</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>100.5205878903119</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>84.76097120426296</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.176684336810691</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>111.9187566128687</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>61.4169936080627</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>36.41670903610054</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>281.2451514480229</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>159.2282838500205</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>57.92518451681314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>120.6353666620245</v>
+        <v>19.37905693789719</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.148836041756</v>
+        <v>1634.933002677727</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.148836041756</v>
+        <v>1265.970485737316</v>
       </c>
       <c r="D2" t="n">
-        <v>832.8831374350057</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="E2" t="n">
-        <v>447.0948848367614</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="F2" t="n">
-        <v>447.0948848367614</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>447.0948848367614</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>128.8717696092709</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4333,22 +4333,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L2" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M2" t="n">
-        <v>1661.933351782553</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942443</v>
+        <v>1535.363606229082</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4357,25 +4357,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V2" t="n">
-        <v>2303.983089637072</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W2" t="n">
-        <v>1951.214434366958</v>
+        <v>2021.532842741849</v>
       </c>
       <c r="X2" t="n">
-        <v>1577.748676105878</v>
+        <v>2021.532842741849</v>
       </c>
       <c r="Y2" t="n">
-        <v>1577.748676105878</v>
+        <v>2021.532842741849</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>231.7481859931355</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L3" t="n">
-        <v>736.109725859254</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M3" t="n">
-        <v>1376.655075326359</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N3" t="n">
-        <v>2028.828954629068</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.341267297828</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P3" t="n">
         <v>2612.309035778665</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
         <v>2613.934077382829</v>
@@ -4442,19 +4442,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4521,19 +4521,19 @@
         <v>619.566119563728</v>
       </c>
       <c r="U4" t="n">
-        <v>330.4139431414077</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V4" t="n">
-        <v>75.72945493552086</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W4" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
       <c r="X4" t="n">
-        <v>52.70091953961285</v>
+        <v>391.5765686657106</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.70091953961285</v>
+        <v>170.7839895221805</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1484.841046679629</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="C5" t="n">
-        <v>1115.878529739218</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D5" t="n">
-        <v>1115.878529739218</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E5" t="n">
-        <v>730.0902771409733</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F5" t="n">
-        <v>319.1043723513657</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>741.5523062596352</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1373.270117242947</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4600,19 +4600,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.045976980643</v>
+        <v>2028.585618455679</v>
       </c>
       <c r="X5" t="n">
-        <v>2261.580218719563</v>
+        <v>2028.585618455679</v>
       </c>
       <c r="Y5" t="n">
-        <v>1871.440886743751</v>
+        <v>2028.585618455679</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C6" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D6" t="n">
         <v>642.7351650238404</v>
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>804.1676154236933</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4685,10 +4685,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W6" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y6" t="n">
         <v>1134.337940986287</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.3650605748302</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C7" t="n">
-        <v>701.3650605748302</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D7" t="n">
-        <v>646.9640297680485</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>646.9640297680485</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>922.1576397183603</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W7" t="n">
-        <v>922.1576397183603</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X7" t="n">
-        <v>922.1576397183603</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.3650605748302</v>
+        <v>347.5039606199163</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2017.001256800493</v>
+        <v>1218.555017562865</v>
       </c>
       <c r="C8" t="n">
-        <v>2017.001256800493</v>
+        <v>1218.555017562865</v>
       </c>
       <c r="D8" t="n">
-        <v>1658.735558193743</v>
+        <v>1218.555017562865</v>
       </c>
       <c r="E8" t="n">
-        <v>1272.947305595499</v>
+        <v>832.7667649646203</v>
       </c>
       <c r="F8" t="n">
-        <v>861.9614008058911</v>
+        <v>468.870044115794</v>
       </c>
       <c r="G8" t="n">
-        <v>445.7922762297101</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>136.9773589225924</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>317.7590983905945</v>
+        <v>317.7590983905949</v>
       </c>
       <c r="K8" t="n">
-        <v>514.8534450457416</v>
+        <v>514.8534450457427</v>
       </c>
       <c r="L8" t="n">
-        <v>796.2681722036986</v>
+        <v>796.2681722037004</v>
       </c>
       <c r="M8" t="n">
-        <v>1141.065716423933</v>
+        <v>1141.065716423936</v>
       </c>
       <c r="N8" t="n">
-        <v>1496.056253763218</v>
+        <v>1496.056253763222</v>
       </c>
       <c r="O8" t="n">
-        <v>1817.928490578759</v>
+        <v>1817.928490578763</v>
       </c>
       <c r="P8" t="n">
-        <v>2236.081309007101</v>
+        <v>2236.0813090071</v>
       </c>
       <c r="Q8" t="n">
         <v>2578.487738764158</v>
@@ -4834,22 +4834,22 @@
         <v>2499.764840135154</v>
       </c>
       <c r="T8" t="n">
-        <v>2407.140588776305</v>
+        <v>2288.986400240671</v>
       </c>
       <c r="U8" t="n">
-        <v>2407.140588776305</v>
+        <v>2288.986400240671</v>
       </c>
       <c r="V8" t="n">
-        <v>2407.140588776305</v>
+        <v>1957.9235128971</v>
       </c>
       <c r="W8" t="n">
-        <v>2407.140588776305</v>
+        <v>1605.154857626986</v>
       </c>
       <c r="X8" t="n">
-        <v>2407.140588776305</v>
+        <v>1605.154857626986</v>
       </c>
       <c r="Y8" t="n">
-        <v>2017.001256800493</v>
+        <v>1605.154857626986</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>943.9608659781235</v>
+        <v>943.9608659781233</v>
       </c>
       <c r="C9" t="n">
-        <v>769.5078366969965</v>
+        <v>769.5078366969963</v>
       </c>
       <c r="D9" t="n">
-        <v>620.5734270357452</v>
+        <v>620.573427035745</v>
       </c>
       <c r="E9" t="n">
-        <v>461.3359720302897</v>
+        <v>461.3359720302894</v>
       </c>
       <c r="F9" t="n">
-        <v>314.8014140571746</v>
+        <v>314.8014140571744</v>
       </c>
       <c r="G9" t="n">
-        <v>177.8515413445372</v>
+        <v>177.851541344537</v>
       </c>
       <c r="H9" t="n">
-        <v>81.68265950585786</v>
+        <v>81.68265950585776</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>92.04425036294045</v>
+        <v>92.0442503629407</v>
       </c>
       <c r="K9" t="n">
-        <v>499.2636786209195</v>
+        <v>499.2636786209202</v>
       </c>
       <c r="L9" t="n">
-        <v>741.0929083489241</v>
+        <v>741.0929083489253</v>
       </c>
       <c r="M9" t="n">
-        <v>1174.380102584082</v>
+        <v>1042.653081265902</v>
       </c>
       <c r="N9" t="n">
-        <v>1498.330320873618</v>
+        <v>1366.603299555439</v>
       </c>
       <c r="O9" t="n">
-        <v>1772.46168659758</v>
+        <v>1772.461686597578</v>
       </c>
       <c r="P9" t="n">
-        <v>2288.421350149431</v>
+        <v>2288.42135014943</v>
       </c>
       <c r="Q9" t="n">
         <v>2580.628951879125</v>
@@ -4913,13 +4913,13 @@
         <v>2440.292022700863</v>
       </c>
       <c r="T9" t="n">
-        <v>2245.283917251132</v>
+        <v>2245.283917251131</v>
       </c>
       <c r="U9" t="n">
         <v>2017.177466928622</v>
       </c>
       <c r="V9" t="n">
-        <v>1782.02535869688</v>
+        <v>1782.025358696879</v>
       </c>
       <c r="W9" t="n">
         <v>1527.788001968678</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>498.0948557872721</v>
       </c>
       <c r="C10" t="n">
-        <v>52.70091953961285</v>
+        <v>498.0948557872721</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961285</v>
+        <v>498.0948557872721</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>350.181762204879</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>203.2918147069686</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>203.2918147069686</v>
       </c>
       <c r="H10" t="n">
         <v>52.70091953961285</v>
@@ -4962,52 +4962,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>63.73618496959462</v>
+        <v>63.7361849695948</v>
       </c>
       <c r="K10" t="n">
-        <v>211.7073526842329</v>
+        <v>211.7073526842334</v>
       </c>
       <c r="L10" t="n">
-        <v>456.5859372719522</v>
+        <v>456.5859372719528</v>
       </c>
       <c r="M10" t="n">
-        <v>725.1651933031156</v>
+        <v>725.1651933031167</v>
       </c>
       <c r="N10" t="n">
-        <v>992.7928513518652</v>
+        <v>992.7928513518666</v>
       </c>
       <c r="O10" t="n">
-        <v>1223.974014837072</v>
+        <v>1223.974014837074</v>
       </c>
       <c r="P10" t="n">
-        <v>1398.268755749894</v>
+        <v>1398.268755749896</v>
       </c>
       <c r="Q10" t="n">
-        <v>1435.506319795792</v>
+        <v>1435.506319795794</v>
       </c>
       <c r="R10" t="n">
-        <v>1435.506319795792</v>
+        <v>1323.556883337304</v>
       </c>
       <c r="S10" t="n">
-        <v>1235.247430536264</v>
+        <v>1323.556883337304</v>
       </c>
       <c r="T10" t="n">
-        <v>1011.378930707988</v>
+        <v>1323.556883337304</v>
       </c>
       <c r="U10" t="n">
-        <v>722.2492312668512</v>
+        <v>1323.556883337304</v>
       </c>
       <c r="V10" t="n">
-        <v>570.1076404745909</v>
+        <v>1068.872395131417</v>
       </c>
       <c r="W10" t="n">
-        <v>280.6904704376302</v>
+        <v>779.455225094456</v>
       </c>
       <c r="X10" t="n">
-        <v>52.70091953961285</v>
+        <v>718.8874349308022</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.70091953961285</v>
+        <v>498.0948557872721</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392149</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324644</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="12">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>963.5174547744541</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>709.615767892637</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>298.6298631030294</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3121.960685029207</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3121.960685029207</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3121.960685029207</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2769.192029759092</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X14" t="n">
-        <v>2395.726271498012</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y14" t="n">
-        <v>2005.586939522201</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="15">
@@ -5348,19 +5348,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7622949738579</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C16" t="n">
-        <v>583.826112045951</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D16" t="n">
-        <v>583.826112045951</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882606</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.192889845645</v>
+        <v>1329.915557051636</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.203338947628</v>
+        <v>1101.926006153619</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.4107598040977</v>
+        <v>881.133427010089</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2038.144201386632</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C17" t="n">
-        <v>1669.181684446221</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D17" t="n">
-        <v>1310.91598583947</v>
+        <v>1194.642199034831</v>
       </c>
       <c r="E17" t="n">
-        <v>925.127733241226</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450754</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y17" t="n">
-        <v>2424.744041450754</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.4482993600903</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1409.980552474725</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1155.296064268838</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W19" t="n">
-        <v>865.8788942318776</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X19" t="n">
-        <v>637.8893433338602</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y19" t="n">
-        <v>417.0967641903301</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1678.62132134232</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D20" t="n">
         <v>1320.35562273557</v>
@@ -5788,16 +5788,16 @@
         <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2828.826251643334</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W20" t="n">
-        <v>2828.826251643334</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X20" t="n">
-        <v>2455.360493382254</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y20" t="n">
-        <v>2065.221161406442</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="21">
@@ -5852,7 +5852,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2489.924953962485</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C22" t="n">
-        <v>2320.988771034578</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>2170.872131622242</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.959038039849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888694</v>
+        <v>1336.077920829105</v>
       </c>
       <c r="V22" t="n">
-        <v>2489.924953962485</v>
+        <v>1081.393432623218</v>
       </c>
       <c r="W22" t="n">
-        <v>2489.924953962485</v>
+        <v>791.9762625862578</v>
       </c>
       <c r="X22" t="n">
-        <v>2489.924953962485</v>
+        <v>563.9867116882405</v>
       </c>
       <c r="Y22" t="n">
-        <v>2489.924953962485</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="D23" t="n">
         <v>1278.358723975039</v>
@@ -5989,10 +5989,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2247.617311727124</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>2078.681128799217</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>2078.681128799217</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>1930.768035216824</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>2946.672497492342</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>2946.672497492342</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W25" t="n">
-        <v>2657.255327455381</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X25" t="n">
-        <v>2429.265776557364</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y25" t="n">
-        <v>2429.265776557364</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1689.318139675982</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C26" t="n">
-        <v>1320.35562273557</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1047.26118400686</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>3192.291725247109</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2839.523069976995</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2466.057311715915</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y26" t="n">
-        <v>2075.917979740103</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2320.988771034577</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034577</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622241</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.959038039848</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3044.089480193524</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T28" t="n">
-        <v>2822.32286476305</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U28" t="n">
-        <v>2533.219997888693</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V28" t="n">
-        <v>2320.988771034577</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W28" t="n">
-        <v>2320.988771034577</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X28" t="n">
-        <v>2320.988771034577</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>2320.988771034577</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796247</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>905.2831725805665</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2831725805665</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>519.4949199823222</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
         <v>108.5090151927147</v>
@@ -6460,13 +6460,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450752</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919558</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943746</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218339</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218339</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1793.418452083574</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1793.418452083574</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610488</v>
+        <v>1504.315585209218</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046014</v>
+        <v>1249.631097003331</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676408</v>
+        <v>960.2139269663701</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696235</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260934</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1384.829779622644</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1384.829779622644</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>1202.866772971799</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>817.078520373555</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993391</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267228</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923657</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2535.034709923657</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>2161.568951662577</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y32" t="n">
-        <v>1771.429619686765</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6797,7 +6797,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.82338995286</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.82338995286</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.82338995286</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.82338995286</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.82338995286</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3150.225125372325</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2928.458509941851</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2639.355643067494</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>2384.671154861608</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>2095.253984824647</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1867.26443392663</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1646.4718547831</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1632.511388127729</v>
+        <v>1384.829779622645</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.548871187317</v>
+        <v>1015.867262682233</v>
       </c>
       <c r="D35" t="n">
-        <v>905.2831725805665</v>
+        <v>657.6015640754829</v>
       </c>
       <c r="E35" t="n">
-        <v>519.4949199823222</v>
+        <v>657.6015640754829</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
         <v>108.5090151927147</v>
@@ -6934,13 +6934,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136264</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U35" t="n">
-        <v>3113.779205772313</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>2782.716318428742</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2782.716318428742</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X35" t="n">
-        <v>2409.250560167662</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.11122819185</v>
+        <v>1771.429619686767</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2192.918367052237</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>2023.982184124331</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>2023.982184124331</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>1876.069090541938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916657</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193523</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763049</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888693</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682806</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>2192.918367052237</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>2192.918367052237</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>2192.918367052237</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2011.826014609888</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>1642.863497669477</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>1284.597799062726</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>898.8095464644821</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>487.8236416748745</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>72.75119151987099</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>72.75119151987099</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.628073993393</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V38" t="n">
-        <v>2788.565186649822</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W38" t="n">
-        <v>2788.565186649822</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>2788.565186649822</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>2398.42585467401</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7241,46 +7241,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>590.8070661251691</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C40" t="n">
-        <v>590.8070661251691</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D40" t="n">
-        <v>590.8070661251691</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E40" t="n">
-        <v>590.8070661251691</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>590.8070661251691</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y40" t="n">
-        <v>590.8070661251691</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490881</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E41" t="n">
-        <v>709.615767892637</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>298.6298631030294</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.1808689801002</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C43" t="n">
-        <v>532.2446860521933</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
         <v>234.2149530574645</v>
@@ -7560,13 +7560,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1331.611463851887</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1331.611463851887</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.611463851887</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.62191295387</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.8293338103399</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371782</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304277</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218345</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218345</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
         <v>589.2106210810557</v>
@@ -7663,37 +7663,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641712</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992583</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.3660221514001</v>
+        <v>720.7556739678752</v>
       </c>
       <c r="C46" t="n">
-        <v>188.3660221514001</v>
+        <v>551.8194910399683</v>
       </c>
       <c r="D46" t="n">
-        <v>188.3660221514001</v>
+        <v>401.7028516276325</v>
       </c>
       <c r="E46" t="n">
-        <v>188.3660221514001</v>
+        <v>253.7897580452394</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218345</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242374</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368017</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621305</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W46" t="n">
-        <v>590.80706612517</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X46" t="n">
-        <v>590.80706612517</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y46" t="n">
-        <v>370.0144869816398</v>
+        <v>902.4041387981149</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7990,16 +7990,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>86.76642653324092</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>257.5983215357635</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8060,7 +8060,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>112.5650977678442</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,10 +8072,10 @@
         <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>126.0821897629701</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,10 +8230,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>258.1828939084842</v>
       </c>
       <c r="N6" t="n">
-        <v>432.4286733436942</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>179.7407191339582</v>
+        <v>179.7407191339524</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,13 +8540,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>133.0575972910933</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>133.0575972910883</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>36.20996526433473</v>
+        <v>36.20996526433456</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.08689932492881</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>147.6706391714482</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>50.01853727182846</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7247482946421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>348.2872428881753</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1774856623015</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -22840,19 +22840,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>94.75845251949846</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
@@ -23001,16 +23001,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.16497103726286</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>46.61829210137341</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>305.7267681340464</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.43367498914955</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>116.9726466502774</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0820285730592</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23187,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5128193460934</v>
       </c>
       <c r="H10" t="n">
-        <v>149.0849862156822</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.998172009944</v>
+        <v>110.9981720099439</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>110.8299420939057</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>198.2563003669325</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.6298148299932</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2384024467255</v>
       </c>
       <c r="V10" t="n">
-        <v>101.5174684394903</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>165.74754312702</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>70.47231642018642</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>44.26901492375075</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>106.3881249561089</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>111.4970467136309</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.42635057212632</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>193.3679244877617</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>82.87935969080525</v>
       </c>
       <c r="F17" t="n">
-        <v>303.9530049144591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>22.04937489577976</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>52.77216054947209</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>290.8536263024786</v>
+        <v>301.4434764528032</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.2253518264308</v>
       </c>
       <c r="V22" t="n">
-        <v>209.2755498368806</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>270.765406776831</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>159.6364462020382</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>91.26909279479503</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>94.04427615813279</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>158.0952129870318</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>195.7713030716952</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.556976973656759</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02872873825282</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>348.95048130494</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>201.213375974964</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696639</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.23169028657259</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>174.5396650363471</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>236.3957064713653</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,13 +25162,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>274.1961480012244</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>150.47458406859</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>201.7620271323281</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>35.40024543611526</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>233.6440512519071</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>33.50229141006257</v>
+        <v>109.0043389868307</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>320.5133764641991</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>112.1987639821118</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.966686757590026</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>222.7020862222413</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>145.992785622807</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>24.78568136090674</v>
+        <v>126.0419910850341</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>780172.4267332543</v>
+        <v>780172.4267332542</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>780172.4267332543</v>
+        <v>780172.4267332542</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772511.0550970752</v>
+        <v>772511.0550970754</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638667</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638671</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638667</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840932.3881638667</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840932.3881638667</v>
+        <v>840932.3881638671</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840932.3881638667</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>311460.8750182006</v>
+        <v>311460.8750182005</v>
       </c>
       <c r="C2" t="n">
         <v>311460.8750182006</v>
       </c>
       <c r="D2" t="n">
-        <v>319936.1389364563</v>
+        <v>319936.1389364565</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194665</v>
@@ -26328,28 +26328,28 @@
         <v>358046.9539194667</v>
       </c>
       <c r="G2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="J2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
         <v>358046.9539194666</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193747.2377198155</v>
+        <v>193747.2377198166</v>
       </c>
       <c r="E3" t="n">
-        <v>268521.3695157151</v>
+        <v>268521.3695157141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002807</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43022.56888020198</v>
+        <v>43022.56888020193</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,7 +26423,7 @@
         <v>53944.08885648662</v>
       </c>
       <c r="D4" t="n">
-        <v>26517.52810102504</v>
+        <v>26517.52810102489</v>
       </c>
       <c r="E4" t="n">
         <v>6110.739312017629</v>
@@ -26435,7 +26435,7 @@
         <v>6110.739312017629</v>
       </c>
       <c r="H4" t="n">
-        <v>6110.739312017638</v>
+        <v>6110.739312017629</v>
       </c>
       <c r="I4" t="n">
         <v>6110.739312017629</v>
@@ -26475,7 +26475,7 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>91549.9096177734</v>
+        <v>91549.90961777343</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26493,16 +26493,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621748.7053867464</v>
+        <v>-627443.2793943917</v>
       </c>
       <c r="C6" t="n">
-        <v>170898.7083242384</v>
+        <v>165204.1343165933</v>
       </c>
       <c r="D6" t="n">
-        <v>8121.463497842313</v>
+        <v>2830.473486303819</v>
       </c>
       <c r="E6" t="n">
-        <v>9108.504530340491</v>
+        <v>5632.315232280486</v>
       </c>
       <c r="F6" t="n">
-        <v>277629.8740460558</v>
+        <v>274153.6847479947</v>
       </c>
       <c r="G6" t="n">
-        <v>277629.8740460555</v>
+        <v>274153.6847479945</v>
       </c>
       <c r="H6" t="n">
-        <v>277629.8740460559</v>
+        <v>274153.6847479948</v>
       </c>
       <c r="I6" t="n">
-        <v>277629.8740460558</v>
+        <v>274153.6847479942</v>
       </c>
       <c r="J6" t="n">
-        <v>105268.8816457749</v>
+        <v>101792.6923477138</v>
       </c>
       <c r="K6" t="n">
-        <v>277629.8740460556</v>
+        <v>274153.6847479946</v>
       </c>
       <c r="L6" t="n">
-        <v>277629.8740460556</v>
+        <v>274153.6847479946</v>
       </c>
       <c r="M6" t="n">
-        <v>234607.3051658538</v>
+        <v>231131.1158677927</v>
       </c>
       <c r="N6" t="n">
-        <v>277629.8740460554</v>
+        <v>274153.6847479946</v>
       </c>
       <c r="O6" t="n">
-        <v>277629.8740460557</v>
+        <v>274153.6847479946</v>
       </c>
       <c r="P6" t="n">
-        <v>277629.8740460555</v>
+        <v>274153.6847479947</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>819.7069159480569</v>
+        <v>819.7069159480582</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226.2308156099919</v>
+        <v>226.230815609993</v>
       </c>
       <c r="E3" t="n">
-        <v>270.0697846452414</v>
+        <v>270.0697846452402</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.6399611571322</v>
+        <v>172.639961157132</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451603</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571322</v>
+        <v>172.639961157132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571322</v>
+        <v>172.639961157132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31159,7 +31159,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
         <v>0.08398246702897151</v>
@@ -31396,7 +31396,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U6" t="n">
         <v>0.08398246702897151</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.295304184715804</v>
+        <v>3.295304184715809</v>
       </c>
       <c r="H8" t="n">
-        <v>33.74803398172074</v>
+        <v>33.74803398172079</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0422145812562</v>
+        <v>127.0422145812564</v>
       </c>
       <c r="J8" t="n">
-        <v>279.6848235475233</v>
+        <v>279.6848235475236</v>
       </c>
       <c r="K8" t="n">
-        <v>419.1750496865433</v>
+        <v>419.175049686544</v>
       </c>
       <c r="L8" t="n">
-        <v>520.0237151295397</v>
+        <v>520.0237151295405</v>
       </c>
       <c r="M8" t="n">
-        <v>578.6265809244794</v>
+        <v>578.6265809244802</v>
       </c>
       <c r="N8" t="n">
-        <v>587.9893639393032</v>
+        <v>587.9893639393041</v>
       </c>
       <c r="O8" t="n">
-        <v>555.2216829525354</v>
+        <v>555.2216829525362</v>
       </c>
       <c r="P8" t="n">
-        <v>473.8688608923639</v>
+        <v>473.8688608923646</v>
       </c>
       <c r="Q8" t="n">
-        <v>355.855779777229</v>
+        <v>355.8557797772296</v>
       </c>
       <c r="R8" t="n">
-        <v>206.9986514931543</v>
+        <v>206.9986514931546</v>
       </c>
       <c r="S8" t="n">
-        <v>75.09174410921146</v>
+        <v>75.09174410921158</v>
       </c>
       <c r="T8" t="n">
-        <v>14.42519406859344</v>
+        <v>14.42519406859346</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2636243347772643</v>
+        <v>0.2636243347772647</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.763143177699594</v>
+        <v>1.763143177699597</v>
       </c>
       <c r="H9" t="n">
-        <v>17.02825121620398</v>
+        <v>17.028251216204</v>
       </c>
       <c r="I9" t="n">
-        <v>60.70471028483253</v>
+        <v>60.70471028483262</v>
       </c>
       <c r="J9" t="n">
-        <v>166.5783648720481</v>
+        <v>166.5783648720484</v>
       </c>
       <c r="K9" t="n">
-        <v>284.7089577779209</v>
+        <v>284.7089577779213</v>
       </c>
       <c r="L9" t="n">
-        <v>382.8263290000808</v>
+        <v>382.8263290000814</v>
       </c>
       <c r="M9" t="n">
-        <v>446.740269191691</v>
+        <v>446.7402691916917</v>
       </c>
       <c r="N9" t="n">
-        <v>458.5641548000361</v>
+        <v>458.5641548000368</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4966138625872</v>
+        <v>419.4966138625878</v>
       </c>
       <c r="P9" t="n">
-        <v>336.6830160994953</v>
+        <v>336.6830160994958</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.0636800165307</v>
+        <v>225.063680016531</v>
       </c>
       <c r="R9" t="n">
-        <v>109.4695386996292</v>
+        <v>109.4695386996294</v>
       </c>
       <c r="S9" t="n">
-        <v>32.74961121735867</v>
+        <v>32.74961121735872</v>
       </c>
       <c r="T9" t="n">
-        <v>7.106704299587396</v>
+        <v>7.106704299587408</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1159962616907628</v>
+        <v>0.115996261690763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.478160012365348</v>
+        <v>1.478160012365351</v>
       </c>
       <c r="H10" t="n">
-        <v>13.14218629175738</v>
+        <v>13.1421862917574</v>
       </c>
       <c r="I10" t="n">
-        <v>44.45230291731431</v>
+        <v>44.45230291731438</v>
       </c>
       <c r="J10" t="n">
-        <v>104.5059128742301</v>
+        <v>104.5059128742303</v>
       </c>
       <c r="K10" t="n">
-        <v>171.735317800265</v>
+        <v>171.7353178002652</v>
       </c>
       <c r="L10" t="n">
-        <v>219.7620803838446</v>
+        <v>219.762080383845</v>
       </c>
       <c r="M10" t="n">
-        <v>231.7083008474154</v>
+        <v>231.7083008474158</v>
       </c>
       <c r="N10" t="n">
-        <v>226.1987953467811</v>
+        <v>226.1987953467815</v>
       </c>
       <c r="O10" t="n">
-        <v>208.931198838695</v>
+        <v>208.9311988386953</v>
       </c>
       <c r="P10" t="n">
-        <v>178.7767345864417</v>
+        <v>178.776734586442</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.7757443081566</v>
+        <v>123.7757443081568</v>
       </c>
       <c r="R10" t="n">
-        <v>66.46344928326374</v>
+        <v>66.46344928326384</v>
       </c>
       <c r="S10" t="n">
-        <v>25.76029767003974</v>
+        <v>25.76029767003978</v>
       </c>
       <c r="T10" t="n">
-        <v>6.315774598288305</v>
+        <v>6.315774598288315</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08062690976538273</v>
+        <v>0.08062690976538285</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.928301823346</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34701,7 +34701,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
         <v>558.3972305517163</v>
@@ -34710,16 +34710,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>283.063611272617</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>552.6880856233105</v>
+        <v>429.4862258963287</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>180.8558247005281</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L3" t="n">
         <v>509.4561008748672</v>
@@ -34792,10 +34792,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q3" t="n">
         <v>22.96660727472423</v>
@@ -34938,10 +34938,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>266.8182057642359</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34950,10 +34950,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>439.4933346707112</v>
       </c>
       <c r="N6" t="n">
-        <v>633.0920487504262</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35035,7 +35035,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>267.7355341929107</v>
+        <v>267.7355341929111</v>
       </c>
       <c r="K8" t="n">
-        <v>199.0851986415628</v>
+        <v>199.0851986415634</v>
       </c>
       <c r="L8" t="n">
-        <v>284.2573001595525</v>
+        <v>284.2573001595533</v>
       </c>
       <c r="M8" t="n">
-        <v>348.2803476972067</v>
+        <v>348.2803476972075</v>
       </c>
       <c r="N8" t="n">
-        <v>358.5763003427123</v>
+        <v>358.5763003427132</v>
       </c>
       <c r="O8" t="n">
-        <v>325.1234715308486</v>
+        <v>325.1234715308494</v>
       </c>
       <c r="P8" t="n">
-        <v>422.3765842710525</v>
+        <v>422.3765842710475</v>
       </c>
       <c r="Q8" t="n">
-        <v>345.8650805626842</v>
+        <v>345.8650805626848</v>
       </c>
       <c r="R8" t="n">
-        <v>57.12953355200463</v>
+        <v>57.12953355200494</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>39.7407382053814</v>
+        <v>39.74073820538166</v>
       </c>
       <c r="K9" t="n">
-        <v>411.3327558161405</v>
+        <v>411.3327558161409</v>
       </c>
       <c r="L9" t="n">
-        <v>244.2719492202066</v>
+        <v>244.2719492202072</v>
       </c>
       <c r="M9" t="n">
-        <v>437.6638325607659</v>
+        <v>304.6062352696733</v>
       </c>
       <c r="N9" t="n">
-        <v>327.2224427167029</v>
+        <v>327.2224427167035</v>
       </c>
       <c r="O9" t="n">
-        <v>276.9003694181428</v>
+        <v>409.9579667092317</v>
       </c>
       <c r="P9" t="n">
-        <v>521.1713773251022</v>
+        <v>521.1713773251028</v>
       </c>
       <c r="Q9" t="n">
-        <v>295.1591936663582</v>
+        <v>295.1591936663586</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.14673275755734</v>
+        <v>11.14673275755752</v>
       </c>
       <c r="K10" t="n">
-        <v>149.4658259743821</v>
+        <v>149.4658259743824</v>
       </c>
       <c r="L10" t="n">
-        <v>247.3521056441608</v>
+        <v>247.3521056441611</v>
       </c>
       <c r="M10" t="n">
-        <v>271.292177809256</v>
+        <v>271.2921778092564</v>
       </c>
       <c r="N10" t="n">
-        <v>270.3309677260097</v>
+        <v>270.3309677260101</v>
       </c>
       <c r="O10" t="n">
-        <v>233.5163267527346</v>
+        <v>233.516326752735</v>
       </c>
       <c r="P10" t="n">
-        <v>176.0552938513352</v>
+        <v>176.0552938513354</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.6137010564622</v>
+        <v>37.61370105646239</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865553999</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013277</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>857032.1433492535</v>
+        <v>888369.3538515778</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5839440.960356067</v>
+        <v>5839440.960356064</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>344.7118069320667</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>201.5703295459648</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16.39856530802294</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>116.902239282742</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.44659877530525</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>94.21219389769297</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S6" t="n">
         <v>147.9721212459916</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.5419495433361</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.4196823148319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>360.257753640338</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.0074333304192</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>133.9283254770338</v>
       </c>
       <c r="T8" t="n">
-        <v>208.6706554955379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0820285730592</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>22.90062148655699</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>95.20719302029246</v>
       </c>
       <c r="I9" t="n">
-        <v>28.69192256658246</v>
+        <v>28.69192256658251</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>149.0849862156822</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>110.8299420939056</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.6298148299932</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2384024467255</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>59.9621122620172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>96.73883192744334</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.718475429349614</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>299.2587842582826</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.5629652581866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>38.35260266107605</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>398.7337175441137</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>188.2196394312116</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>45.68241109219515</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>93.15507384882928</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>28.72759225321358</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>299.0510103814565</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>126.5660981224326</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>26.30878201733173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>265.1843234240112</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.26879610203965</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>175.9864863791821</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>165.1217134651686</v>
       </c>
       <c r="D23" t="n">
-        <v>83.91763484385194</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>131.6653792309044</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3498115007221</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>248.291180648487</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>223.83515708523</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.2120483577851</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>290.9669535545989</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>126.5388824951709</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>116.6286547214874</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>132.5373350448693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>252.1815824390015</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>133.3353942071037</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>36.41670903610054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>138.6444210303392</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>132.679897740487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>173.2057702920271</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>17.35112070699488</v>
+        <v>79.41818244097749</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>24.01006515217614</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>36.41670903610054</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>61.4169936080627</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>173.1814393154094</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>36.41670903610054</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>10.20389322926706</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>159.2282838500205</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>178.6478431952956</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>57.02146927219709</v>
       </c>
       <c r="F46" t="n">
-        <v>19.37905693789719</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.933002677727</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="C2" t="n">
-        <v>1265.970485737316</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="D2" t="n">
-        <v>907.7047871305651</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="E2" t="n">
-        <v>907.7047871305651</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305651</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H2" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4333,22 +4333,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3115823537878</v>
+        <v>797.5335819773815</v>
       </c>
       <c r="M2" t="n">
-        <v>1341.029393337099</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N2" t="n">
-        <v>1535.363606229082</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4357,25 +4357,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U2" t="n">
-        <v>2225.139236222622</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V2" t="n">
-        <v>2225.139236222622</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W2" t="n">
-        <v>2021.532842741849</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X2" t="n">
-        <v>2021.532842741849</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y2" t="n">
-        <v>2021.532842741849</v>
+        <v>719.1177791429284</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K3" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L3" t="n">
-        <v>624.6702790690885</v>
+        <v>661.4641707288297</v>
       </c>
       <c r="M3" t="n">
-        <v>1265.215628536193</v>
+        <v>1302.009520195934</v>
       </c>
       <c r="N3" t="n">
-        <v>1917.389507838902</v>
+        <v>1954.183399498643</v>
       </c>
       <c r="O3" t="n">
-        <v>2466.825516591625</v>
+        <v>2503.619408251366</v>
       </c>
       <c r="P3" t="n">
         <v>2612.309035778665</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R3" t="n">
         <v>2613.934077382829</v>
@@ -4442,19 +4442,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170.7839895221805</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C4" t="n">
-        <v>170.7839895221805</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D4" t="n">
-        <v>170.7839895221805</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>170.7839895221805</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>170.7839895221805</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4515,25 +4515,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>619.566119563728</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V4" t="n">
-        <v>619.566119563728</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W4" t="n">
-        <v>619.566119563728</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X4" t="n">
-        <v>391.5765686657106</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y4" t="n">
-        <v>170.7839895221805</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1993.791074238199</v>
+        <v>1095.631408912574</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.828557297788</v>
+        <v>1095.631408912574</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.562858691037</v>
+        <v>1095.631408912574</v>
       </c>
       <c r="E5" t="n">
-        <v>880.774606092793</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>741.5523062596352</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1373.270117242947</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>2000.577785302793</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.585618455679</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.585618455679</v>
+        <v>1872.370580952507</v>
       </c>
       <c r="Y5" t="n">
-        <v>2028.585618455679</v>
+        <v>1482.231248976696</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C6" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D6" t="n">
         <v>642.7351650238404</v>
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1440.248516892441</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4685,10 +4685,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W6" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y6" t="n">
         <v>1134.337940986287</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>696.5284430307253</v>
       </c>
       <c r="V7" t="n">
-        <v>797.9511127930708</v>
+        <v>441.8439548248384</v>
       </c>
       <c r="W7" t="n">
-        <v>508.5339427561102</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X7" t="n">
-        <v>508.5339427561102</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.5039606199163</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.555017562865</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.555017562865</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D8" t="n">
-        <v>1218.555017562865</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E8" t="n">
-        <v>832.7667649646203</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F8" t="n">
-        <v>468.870044115794</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G8" t="n">
         <v>52.70091953961285</v>
@@ -4804,22 +4804,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>317.7590983905949</v>
+        <v>317.7590983905947</v>
       </c>
       <c r="K8" t="n">
-        <v>514.8534450457427</v>
+        <v>514.8534450457421</v>
       </c>
       <c r="L8" t="n">
-        <v>796.2681722037004</v>
+        <v>796.2681722036994</v>
       </c>
       <c r="M8" t="n">
-        <v>1141.065716423936</v>
+        <v>1141.065716423934</v>
       </c>
       <c r="N8" t="n">
-        <v>1496.056253763222</v>
+        <v>1496.05625376322</v>
       </c>
       <c r="O8" t="n">
-        <v>1817.928490578763</v>
+        <v>1817.92849057876</v>
       </c>
       <c r="P8" t="n">
         <v>2236.0813090071</v>
@@ -4834,22 +4834,22 @@
         <v>2499.764840135154</v>
       </c>
       <c r="T8" t="n">
-        <v>2288.986400240671</v>
+        <v>2499.764840135154</v>
       </c>
       <c r="U8" t="n">
-        <v>2288.986400240671</v>
+        <v>2246.146629455296</v>
       </c>
       <c r="V8" t="n">
-        <v>1957.9235128971</v>
+        <v>1915.083742111725</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.154857626986</v>
+        <v>1562.315086841611</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.154857626986</v>
+        <v>1188.849328580531</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.154857626986</v>
+        <v>1165.717387685019</v>
       </c>
     </row>
     <row r="9">
@@ -4868,34 +4868,34 @@
         <v>620.573427035745</v>
       </c>
       <c r="E9" t="n">
-        <v>461.3359720302894</v>
+        <v>461.3359720302896</v>
       </c>
       <c r="F9" t="n">
-        <v>314.8014140571744</v>
+        <v>314.8014140571745</v>
       </c>
       <c r="G9" t="n">
-        <v>177.851541344537</v>
+        <v>177.8515413445371</v>
       </c>
       <c r="H9" t="n">
-        <v>81.68265950585776</v>
+        <v>81.68265950585781</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>92.0442503629407</v>
+        <v>216.8743753499453</v>
       </c>
       <c r="K9" t="n">
-        <v>499.2636786209202</v>
+        <v>624.0938036079245</v>
       </c>
       <c r="L9" t="n">
-        <v>741.0929083489253</v>
+        <v>865.9230333359294</v>
       </c>
       <c r="M9" t="n">
-        <v>1042.653081265902</v>
+        <v>1167.483206252906</v>
       </c>
       <c r="N9" t="n">
-        <v>1366.603299555439</v>
+        <v>1491.433424542442</v>
       </c>
       <c r="O9" t="n">
         <v>1772.461686597578</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.0948557872721</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0948557872721</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>498.0948557872721</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>350.181762204879</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>203.2918147069686</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>203.2918147069686</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
         <v>52.70091953961285</v>
@@ -4962,52 +4962,52 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>63.7361849695948</v>
+        <v>63.7361849695947</v>
       </c>
       <c r="K10" t="n">
-        <v>211.7073526842334</v>
+        <v>211.7073526842331</v>
       </c>
       <c r="L10" t="n">
-        <v>456.5859372719528</v>
+        <v>456.5859372719524</v>
       </c>
       <c r="M10" t="n">
-        <v>725.1651933031167</v>
+        <v>725.1651933031161</v>
       </c>
       <c r="N10" t="n">
-        <v>992.7928513518666</v>
+        <v>992.7928513518659</v>
       </c>
       <c r="O10" t="n">
-        <v>1223.974014837074</v>
+        <v>1223.974014837073</v>
       </c>
       <c r="P10" t="n">
-        <v>1398.268755749896</v>
+        <v>1398.268755749895</v>
       </c>
       <c r="Q10" t="n">
-        <v>1435.506319795794</v>
+        <v>1435.506319795793</v>
       </c>
       <c r="R10" t="n">
-        <v>1323.556883337304</v>
+        <v>1435.506319795793</v>
       </c>
       <c r="S10" t="n">
-        <v>1323.556883337304</v>
+        <v>1435.506319795793</v>
       </c>
       <c r="T10" t="n">
-        <v>1323.556883337304</v>
+        <v>1211.637819967517</v>
       </c>
       <c r="U10" t="n">
-        <v>1323.556883337304</v>
+        <v>922.50812052638</v>
       </c>
       <c r="V10" t="n">
-        <v>1068.872395131417</v>
+        <v>667.8236323204932</v>
       </c>
       <c r="W10" t="n">
-        <v>779.455225094456</v>
+        <v>378.4064622835326</v>
       </c>
       <c r="X10" t="n">
-        <v>718.8874349308022</v>
+        <v>150.4169113855152</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.0948557872721</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.624422581789</v>
+        <v>1638.360256348809</v>
       </c>
       <c r="C11" t="n">
         <v>1636.624422581789</v>
@@ -5041,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906803</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X11" t="n">
-        <v>2023.224262645911</v>
+        <v>2415.099428388743</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.224262645911</v>
+        <v>2024.960096412931</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5144,28 +5144,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.5851666348717</v>
+        <v>815.7608990065717</v>
       </c>
       <c r="C13" t="n">
-        <v>657.6489837069648</v>
+        <v>646.8247160786648</v>
       </c>
       <c r="D13" t="n">
-        <v>507.5323442946291</v>
+        <v>496.708076666329</v>
       </c>
       <c r="E13" t="n">
-        <v>359.619250712236</v>
+        <v>348.7949830839359</v>
       </c>
       <c r="F13" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5202,16 +5202,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.924175709432</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.507005672471</v>
+        <v>1446.191493878359</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5174547744541</v>
+        <v>1218.201942980342</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5174547744541</v>
+        <v>997.4093638368114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1822.632236038043</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C14" t="n">
-        <v>1453.669719097632</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D14" t="n">
-        <v>1095.404020490881</v>
+        <v>1194.642199034832</v>
       </c>
       <c r="E14" t="n">
-        <v>709.615767892637</v>
+        <v>808.8539464365876</v>
       </c>
       <c r="F14" t="n">
-        <v>298.6298631030294</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>298.6298631030294</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
@@ -5278,7 +5278,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5287,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5311,19 +5311,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102165</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.4849621798493</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C16" t="n">
-        <v>530.5487792519424</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D16" t="n">
-        <v>380.4321398396066</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4321398396066</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.915557051636</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.926006153619</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="Y16" t="n">
-        <v>881.133427010089</v>
+        <v>970.0546934046023</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1921.870414581994</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1552.907897641582</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.642199034831</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5515,19 +5515,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X17" t="n">
-        <v>2698.609586621927</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y17" t="n">
-        <v>2308.470254646115</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5597,49 +5597,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>530.9956795433841</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C19" t="n">
-        <v>362.0594966154772</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.426274415171</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>933.436723517154</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.6441443736238</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1689.318139675982</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2839.523069976995</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.523069976995</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>2466.057311715915</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y20" t="n">
-        <v>2075.917979740103</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>382.3382468580007</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5943,19 +5943,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1336.077920829105</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1081.393432623218</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>791.9762625862578</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>563.9867116882405</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.9867116882405</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1363.124011696101</v>
+        <v>1845.410930903097</v>
       </c>
       <c r="C23" t="n">
-        <v>1363.124011696101</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W23" t="n">
-        <v>2513.328941997115</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X23" t="n">
-        <v>2139.863183736035</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y23" t="n">
-        <v>1749.723851760223</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228006</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
         <v>381.1049005553748</v>
@@ -6138,13 +6138,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W25" t="n">
-        <v>1383.507193008249</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.51186045178</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.71928130825</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1405.52688261361</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C26" t="n">
-        <v>1405.52688261361</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D26" t="n">
-        <v>1047.26118400686</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E26" t="n">
-        <v>821.1650657389509</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W26" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X26" t="n">
-        <v>2182.266054653544</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y26" t="n">
-        <v>1792.126722677732</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="27">
@@ -6296,22 +6296,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1739.201569949316</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1517.434954518842</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1228.332087644485</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>973.6475994385985</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>684.2304294016378</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>456.2408785036205</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.4482993600903</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E29" t="n">
         <v>934.5673701373257</v>
@@ -6460,31 +6460,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6496,19 +6496,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>3197.788768583745</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W29" t="n">
-        <v>3197.788768583745</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X29" t="n">
-        <v>2824.323010322666</v>
+        <v>2345.840931351814</v>
       </c>
       <c r="Y29" t="n">
-        <v>2434.183678346854</v>
+        <v>1955.701599376002</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.4317969248226</v>
+        <v>815.7608990065712</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>646.8247160786643</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1793.418452083574</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1793.418452083574</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U31" t="n">
-        <v>1504.315585209218</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.631097003331</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W31" t="n">
-        <v>960.2139269663701</v>
+        <v>1446.191493878358</v>
       </c>
       <c r="X31" t="n">
-        <v>732.2243760683527</v>
+        <v>1218.201942980341</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.4317969248226</v>
+        <v>997.4093638368109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X32" t="n">
-        <v>2047.583838282732</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y32" t="n">
-        <v>2047.583838282732</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>270.9995076393842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C34" t="n">
-        <v>270.9995076393842</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D34" t="n">
-        <v>270.9995076393842</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>270.9995076393842</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.6479724696239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1384.829779622645</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C35" t="n">
-        <v>1015.867262682233</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>657.6015640754829</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>657.6015640754829</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.034709923658</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X35" t="n">
-        <v>2161.568951662578</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y35" t="n">
-        <v>1771.429619686767</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7004,46 +7004,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7207,19 +7207,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3197.788768583745</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="V38" t="n">
-        <v>3197.788768583745</v>
+        <v>3135.094766832249</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9995076393842</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>270.9995076393842</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>270.9995076393842</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>270.9995076393842</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.6479724696239</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1681.836054204828</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C41" t="n">
-        <v>1312.873537264416</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D41" t="n">
-        <v>954.607838657666</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2709.321519009452</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.97538618064</v>
+        <v>2335.855760748373</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.836054204828</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7478,46 +7478,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9995076393842</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>270.9995076393842</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6479724696239</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.6479724696239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,10 +7745,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>720.7556739678752</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C46" t="n">
-        <v>551.8194910399683</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="D46" t="n">
-        <v>401.7028516276325</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="E46" t="n">
-        <v>253.7897580452394</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7827,31 +7827,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
         <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V46" t="n">
-        <v>1191.821308835076</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W46" t="n">
-        <v>902.4041387981149</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X46" t="n">
-        <v>902.4041387981149</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y46" t="n">
-        <v>902.4041387981149</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>182.6289329122087</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>257.5983215357635</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8060,10 +8060,10 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>143.5406554219326</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>37.16554713105234</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>126.0821897629701</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>410.9118391044057</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>258.1828939084842</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>414.5834604977823</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>179.7407191339524</v>
+        <v>179.7407191339558</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>133.0575972910883</v>
+        <v>6.966561950681523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>36.20996526433456</v>
+        <v>36.20996526433464</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>68.20509701387004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>147.6706391714482</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,10 +22707,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>150.8482557906049</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>50.01853727182846</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -22755,25 +22755,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.2872428881753</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>287.7181761745688</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22950,10 +22950,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>126.9810487932549</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>59.16497103726286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>46.61829210137341</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>412.0074333304192</v>
       </c>
       <c r="H8" t="n">
         <v>305.7267681340464</v>
       </c>
       <c r="I8" t="n">
-        <v>83.43367498914955</v>
+        <v>83.43367498914967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.6706554955379</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0820285730592</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>363.3373171694966</v>
       </c>
     </row>
     <row r="9">
@@ -23187,16 +23187,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.5128193460934</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>149.0849862156822</v>
       </c>
       <c r="I10" t="n">
         <v>110.9981720099439</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>110.8299420939057</v>
       </c>
       <c r="S10" t="n">
         <v>198.2563003669325</v>
       </c>
       <c r="T10" t="n">
-        <v>221.6298148299932</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2384024467255</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>165.74754312702</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>121.8458214246514</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>363.5544163416579</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>70.47231642018642</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.26901492375075</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>107.0684453618552</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.142328197597692</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>106.3881249561089</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.1495690897422</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>193.3679244877617</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>354.006249410267</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>82.87935969080525</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.04937489577976</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>96.41917990352118</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,13 +23940,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>301.4434764528032</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>121.0536152320424</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445295</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.2253518264308</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>200.1511783058389</v>
       </c>
       <c r="D23" t="n">
-        <v>270.765406776831</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>94.04427615813279</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>44.23484185137269</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>116.9817111225206</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>158.0952129870318</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>3.556976973656759</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>91.76688810888163</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>201.213375974964</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>31.98681829672492</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>57.23169028657259</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>113.091309332006</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>236.3957064713653</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>109.0043389868307</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,25 +25125,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>147.8785773062518</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>274.1961480012244</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>176.0351984253859</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>233.6440512519071</v>
+        <v>171.5769895179245</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.0043389868307</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>320.5133764641991</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>176.0595294020036</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>112.1987639821118</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>208.3807601228277</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>222.7020862222413</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>149.1044152748393</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>89.41249337437208</v>
       </c>
       <c r="F46" t="n">
-        <v>126.0419910850341</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>780172.4267332542</v>
+        <v>780172.4267332545</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772511.0550970754</v>
+        <v>772511.0550970753</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840932.3881638667</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840932.3881638671</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638671</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840932.3881638668</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840932.3881638668</v>
+        <v>840932.3881638669</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638668</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840932.3881638669</v>
+        <v>840932.3881638667</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>311460.8750182005</v>
       </c>
       <c r="C2" t="n">
-        <v>311460.8750182006</v>
+        <v>311460.8750182005</v>
       </c>
       <c r="D2" t="n">
-        <v>319936.1389364565</v>
+        <v>319936.1389364564</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194665</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="F2" t="n">
         <v>358046.9539194667</v>
@@ -26331,31 +26331,31 @@
         <v>358046.9539194665</v>
       </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="I2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="J2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="K2" t="n">
         <v>358046.9539194664</v>
-      </c>
-      <c r="J2" t="n">
-        <v>358046.9539194666</v>
-      </c>
-      <c r="K2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194667</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193747.2377198166</v>
+        <v>193747.237719816</v>
       </c>
       <c r="E3" t="n">
-        <v>268521.3695157141</v>
+        <v>268521.3695157148</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>2.920821771112969e-10</v>
       </c>
       <c r="J3" t="n">
         <v>172360.9924002808</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43022.56888020193</v>
+        <v>43022.56888020196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>53944.08885648662</v>
       </c>
       <c r="D4" t="n">
-        <v>26517.52810102489</v>
+        <v>26517.52810102497</v>
       </c>
       <c r="E4" t="n">
-        <v>6110.739312017629</v>
+        <v>6110.739312017621</v>
       </c>
       <c r="F4" t="n">
-        <v>6110.739312017629</v>
+        <v>6110.739312017621</v>
       </c>
       <c r="G4" t="n">
         <v>6110.739312017629</v>
@@ -26447,7 +26447,7 @@
         <v>6110.739312017629</v>
       </c>
       <c r="L4" t="n">
-        <v>6110.739312017629</v>
+        <v>6110.73931201763</v>
       </c>
       <c r="M4" t="n">
         <v>6110.739312017629</v>
@@ -26459,7 +26459,7 @@
         <v>6110.739312017629</v>
       </c>
       <c r="P4" t="n">
-        <v>6110.73931201763</v>
+        <v>6110.739312017638</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>91549.90961777343</v>
+        <v>91549.90961777342</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627443.2793943917</v>
+        <v>-622318.1627875111</v>
       </c>
       <c r="C6" t="n">
-        <v>165204.1343165933</v>
+        <v>170329.2509234739</v>
       </c>
       <c r="D6" t="n">
-        <v>2830.473486303819</v>
+        <v>7592.364496688146</v>
       </c>
       <c r="E6" t="n">
-        <v>5632.315232280486</v>
+        <v>8760.885600534837</v>
       </c>
       <c r="F6" t="n">
-        <v>274153.6847479947</v>
+        <v>277282.2551162497</v>
       </c>
       <c r="G6" t="n">
-        <v>274153.6847479945</v>
+        <v>277282.2551162496</v>
       </c>
       <c r="H6" t="n">
-        <v>274153.6847479948</v>
+        <v>277282.2551162496</v>
       </c>
       <c r="I6" t="n">
-        <v>274153.6847479942</v>
+        <v>277282.2551162491</v>
       </c>
       <c r="J6" t="n">
-        <v>101792.6923477138</v>
+        <v>104921.2627159686</v>
       </c>
       <c r="K6" t="n">
-        <v>274153.6847479946</v>
+        <v>277282.2551162494</v>
       </c>
       <c r="L6" t="n">
-        <v>274153.6847479946</v>
+        <v>277282.2551162496</v>
       </c>
       <c r="M6" t="n">
-        <v>231131.1158677927</v>
+        <v>234259.6862360475</v>
       </c>
       <c r="N6" t="n">
-        <v>274153.6847479946</v>
+        <v>277282.2551162496</v>
       </c>
       <c r="O6" t="n">
-        <v>274153.6847479946</v>
+        <v>277282.2551162494</v>
       </c>
       <c r="P6" t="n">
-        <v>274153.6847479947</v>
+        <v>277282.2551162496</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>819.7069159480582</v>
+        <v>819.7069159480575</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26798,40 +26798,40 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226.230815609993</v>
+        <v>226.2308156099924</v>
       </c>
       <c r="E3" t="n">
-        <v>270.0697846452402</v>
+        <v>270.069784645241</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>-2.273736754432321e-13</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.639961157132</v>
+        <v>172.6399611571321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>658.7614942451606</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.639961157132</v>
+        <v>172.6399611571321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.639961157132</v>
+        <v>172.6399611571321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31159,7 +31159,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
         <v>0.08398246702897151</v>
@@ -31396,7 +31396,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
         <v>0.08398246702897151</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.295304184715809</v>
+        <v>3.295304184715806</v>
       </c>
       <c r="H8" t="n">
-        <v>33.74803398172079</v>
+        <v>33.74803398172076</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0422145812564</v>
+        <v>127.0422145812562</v>
       </c>
       <c r="J8" t="n">
-        <v>279.6848235475236</v>
+        <v>279.6848235475234</v>
       </c>
       <c r="K8" t="n">
-        <v>419.175049686544</v>
+        <v>419.1750496865436</v>
       </c>
       <c r="L8" t="n">
-        <v>520.0237151295405</v>
+        <v>520.0237151295401</v>
       </c>
       <c r="M8" t="n">
-        <v>578.6265809244802</v>
+        <v>578.6265809244798</v>
       </c>
       <c r="N8" t="n">
-        <v>587.9893639393041</v>
+        <v>587.9893639393036</v>
       </c>
       <c r="O8" t="n">
-        <v>555.2216829525362</v>
+        <v>555.2216829525357</v>
       </c>
       <c r="P8" t="n">
-        <v>473.8688608923646</v>
+        <v>473.8688608923642</v>
       </c>
       <c r="Q8" t="n">
-        <v>355.8557797772296</v>
+        <v>355.8557797772293</v>
       </c>
       <c r="R8" t="n">
-        <v>206.9986514931546</v>
+        <v>206.9986514931545</v>
       </c>
       <c r="S8" t="n">
-        <v>75.09174410921158</v>
+        <v>75.09174410921152</v>
       </c>
       <c r="T8" t="n">
-        <v>14.42519406859346</v>
+        <v>14.42519406859345</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2636243347772647</v>
+        <v>0.2636243347772645</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.763143177699597</v>
+        <v>1.763143177699595</v>
       </c>
       <c r="H9" t="n">
-        <v>17.028251216204</v>
+        <v>17.02825121620399</v>
       </c>
       <c r="I9" t="n">
-        <v>60.70471028483262</v>
+        <v>60.70471028483257</v>
       </c>
       <c r="J9" t="n">
-        <v>166.5783648720484</v>
+        <v>166.5783648720482</v>
       </c>
       <c r="K9" t="n">
-        <v>284.7089577779213</v>
+        <v>284.7089577779211</v>
       </c>
       <c r="L9" t="n">
-        <v>382.8263290000814</v>
+        <v>382.826329000081</v>
       </c>
       <c r="M9" t="n">
-        <v>446.7402691916917</v>
+        <v>446.7402691916913</v>
       </c>
       <c r="N9" t="n">
-        <v>458.5641548000368</v>
+        <v>458.5641548000365</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4966138625878</v>
+        <v>419.4966138625875</v>
       </c>
       <c r="P9" t="n">
-        <v>336.6830160994958</v>
+        <v>336.6830160994955</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.063680016531</v>
+        <v>225.0636800165308</v>
       </c>
       <c r="R9" t="n">
-        <v>109.4695386996294</v>
+        <v>109.4695386996293</v>
       </c>
       <c r="S9" t="n">
-        <v>32.74961121735872</v>
+        <v>32.74961121735869</v>
       </c>
       <c r="T9" t="n">
-        <v>7.106704299587408</v>
+        <v>7.106704299587402</v>
       </c>
       <c r="U9" t="n">
-        <v>0.115996261690763</v>
+        <v>0.1159962616907629</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.478160012365351</v>
+        <v>1.478160012365349</v>
       </c>
       <c r="H10" t="n">
-        <v>13.1421862917574</v>
+        <v>13.14218629175739</v>
       </c>
       <c r="I10" t="n">
-        <v>44.45230291731438</v>
+        <v>44.45230291731434</v>
       </c>
       <c r="J10" t="n">
-        <v>104.5059128742303</v>
+        <v>104.5059128742302</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7353178002652</v>
+        <v>171.7353178002651</v>
       </c>
       <c r="L10" t="n">
-        <v>219.762080383845</v>
+        <v>219.7620803838448</v>
       </c>
       <c r="M10" t="n">
-        <v>231.7083008474158</v>
+        <v>231.7083008474156</v>
       </c>
       <c r="N10" t="n">
-        <v>226.1987953467815</v>
+        <v>226.1987953467813</v>
       </c>
       <c r="O10" t="n">
-        <v>208.9311988386953</v>
+        <v>208.9311988386951</v>
       </c>
       <c r="P10" t="n">
-        <v>178.776734586442</v>
+        <v>178.7767345864418</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.7757443081568</v>
+        <v>123.7757443081567</v>
       </c>
       <c r="R10" t="n">
-        <v>66.46344928326384</v>
+        <v>66.46344928326378</v>
       </c>
       <c r="S10" t="n">
-        <v>25.76029767003978</v>
+        <v>25.76029767003976</v>
       </c>
       <c r="T10" t="n">
-        <v>6.315774598288315</v>
+        <v>6.31577459828831</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08062690976538285</v>
+        <v>0.08062690976538278</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>558.3972305517163</v>
+        <v>323.3649489134746</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
@@ -34713,13 +34713,13 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>429.4862258963287</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P2" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748672</v>
+        <v>282.1564109933406</v>
       </c>
       <c r="M3" t="n">
         <v>647.0155045122269</v>
@@ -34795,7 +34795,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>146.9530496838794</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
         <v>22.96660727472423</v>
@@ -34938,22 +34938,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>266.8182057642359</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>607.2090238437818</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35023,19 +35023,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>439.4933346707112</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>615.2468359045143</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>267.7355341929111</v>
+        <v>267.7355341929109</v>
       </c>
       <c r="K8" t="n">
-        <v>199.0851986415634</v>
+        <v>199.0851986415631</v>
       </c>
       <c r="L8" t="n">
-        <v>284.2573001595533</v>
+        <v>284.2573001595528</v>
       </c>
       <c r="M8" t="n">
-        <v>348.2803476972075</v>
+        <v>348.280347697207</v>
       </c>
       <c r="N8" t="n">
-        <v>358.5763003427132</v>
+        <v>358.5763003427127</v>
       </c>
       <c r="O8" t="n">
-        <v>325.1234715308494</v>
+        <v>325.123471530849</v>
       </c>
       <c r="P8" t="n">
-        <v>422.3765842710475</v>
+        <v>422.3765842710505</v>
       </c>
       <c r="Q8" t="n">
-        <v>345.8650805626848</v>
+        <v>345.8650805626845</v>
       </c>
       <c r="R8" t="n">
-        <v>57.12953355200494</v>
+        <v>57.12953355200477</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>39.74073820538166</v>
+        <v>165.8317735457904</v>
       </c>
       <c r="K9" t="n">
-        <v>411.3327558161409</v>
+        <v>411.3327558161407</v>
       </c>
       <c r="L9" t="n">
-        <v>244.2719492202072</v>
+        <v>244.2719492202069</v>
       </c>
       <c r="M9" t="n">
-        <v>304.6062352696733</v>
+        <v>304.6062352696729</v>
       </c>
       <c r="N9" t="n">
-        <v>327.2224427167035</v>
+        <v>327.2224427167032</v>
       </c>
       <c r="O9" t="n">
-        <v>409.9579667092317</v>
+        <v>283.8669313688246</v>
       </c>
       <c r="P9" t="n">
-        <v>521.1713773251028</v>
+        <v>521.1713773251024</v>
       </c>
       <c r="Q9" t="n">
-        <v>295.1591936663586</v>
+        <v>295.1591936663584</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.14673275755752</v>
+        <v>11.14673275755742</v>
       </c>
       <c r="K10" t="n">
-        <v>149.4658259743824</v>
+        <v>149.4658259743823</v>
       </c>
       <c r="L10" t="n">
-        <v>247.3521056441611</v>
+        <v>247.3521056441609</v>
       </c>
       <c r="M10" t="n">
-        <v>271.2921778092564</v>
+        <v>271.2921778092562</v>
       </c>
       <c r="N10" t="n">
-        <v>270.3309677260101</v>
+        <v>270.3309677260099</v>
       </c>
       <c r="O10" t="n">
-        <v>233.516326752735</v>
+        <v>233.5163267527348</v>
       </c>
       <c r="P10" t="n">
-        <v>176.0552938513354</v>
+        <v>176.0552938513353</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.61370105646239</v>
+        <v>37.61370105646229</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
